--- a/datamining/modi_data/modidata.xlsx
+++ b/datamining/modi_data/modidata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="415">
   <si>
     <t>연번</t>
   </si>
@@ -25,6 +25,9 @@
     <t>변경</t>
   </si>
   <si>
+    <t>윈도</t>
+  </si>
+  <si>
     <t>초등학교</t>
   </si>
   <si>
@@ -34,9 +37,15 @@
     <t>그래피</t>
   </si>
   <si>
+    <t>컨텐츠</t>
+  </si>
+  <si>
     <t>•중등</t>
   </si>
   <si>
+    <t>컨텐트</t>
+  </si>
+  <si>
     <t>텐츠</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>토타입</t>
   </si>
   <si>
+    <t>프로</t>
+  </si>
+  <si>
     <t>․분석</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t>기통제력</t>
   </si>
   <si>
+    <t>델파</t>
+  </si>
+  <si>
     <t>국내․외</t>
   </si>
   <si>
@@ -193,6 +208,9 @@
     <t>메타인</t>
   </si>
   <si>
+    <t>중학</t>
+  </si>
+  <si>
     <t>토리</t>
   </si>
   <si>
@@ -250,6 +268,9 @@
     <t>토타이핑</t>
   </si>
   <si>
+    <t>그래밍</t>
+  </si>
+  <si>
     <t>화교과서</t>
   </si>
   <si>
@@ -298,6 +319,9 @@
     <t>재교육원</t>
   </si>
   <si>
+    <t>사이버대</t>
+  </si>
+  <si>
     <t>학습모</t>
   </si>
   <si>
@@ -331,6 +355,9 @@
     <t>그래밍언어</t>
   </si>
   <si>
+    <t>로젝트</t>
+  </si>
+  <si>
     <t>림피아드</t>
   </si>
   <si>
@@ -370,6 +397,9 @@
     <t>–학습</t>
   </si>
   <si>
+    <t>스크</t>
+  </si>
+  <si>
     <t>능감</t>
   </si>
   <si>
@@ -388,6 +418,9 @@
     <t>언플러그</t>
   </si>
   <si>
+    <t>습자</t>
+  </si>
+  <si>
     <t>공통요</t>
   </si>
   <si>
@@ -535,6 +568,9 @@
     <t>텍스트데이터</t>
   </si>
   <si>
+    <t>소프트</t>
+  </si>
+  <si>
     <t>그드활동</t>
   </si>
   <si>
@@ -547,9 +583,18 @@
     <t>어그램</t>
   </si>
   <si>
+    <t>알고리듬</t>
+  </si>
+  <si>
     <t>러그</t>
   </si>
   <si>
+    <t>컴퓨</t>
+  </si>
+  <si>
+    <t>퓨터</t>
+  </si>
+  <si>
     <t>인포</t>
   </si>
   <si>
@@ -577,6 +622,9 @@
     <t>요소임</t>
   </si>
   <si>
+    <t>랙티브</t>
+  </si>
+  <si>
     <t>인터</t>
   </si>
   <si>
@@ -625,54 +673,57 @@
     <t>동시따응발</t>
   </si>
   <si>
+    <t>비버</t>
+  </si>
+  <si>
+    <t>토타</t>
+  </si>
+  <si>
+    <t>내·외향</t>
+  </si>
+  <si>
+    <t>비버챌린</t>
+  </si>
+  <si>
+    <t>가정신</t>
+  </si>
+  <si>
+    <t>사전⋅사후</t>
+  </si>
+  <si>
+    <t>한국교육개</t>
+  </si>
+  <si>
+    <t>피케이션</t>
+  </si>
+  <si>
+    <t>코드블록®</t>
+  </si>
+  <si>
+    <t>래치주니어</t>
+  </si>
+  <si>
+    <t>트베드</t>
+  </si>
+  <si>
+    <t>사용의</t>
+  </si>
+  <si>
+    <t>지적・문화</t>
+  </si>
+  <si>
     <t>파이선</t>
   </si>
   <si>
-    <t>비버</t>
-  </si>
-  <si>
-    <t>토타</t>
-  </si>
-  <si>
-    <t>내·외향</t>
-  </si>
-  <si>
-    <t>비버챌린</t>
-  </si>
-  <si>
-    <t>가정신</t>
-  </si>
-  <si>
-    <t>사전⋅사후</t>
-  </si>
-  <si>
-    <t>한국교육개</t>
-  </si>
-  <si>
-    <t>피케이션</t>
-  </si>
-  <si>
-    <t>코드블록®</t>
-  </si>
-  <si>
-    <t>래치주니어</t>
-  </si>
-  <si>
-    <t>트베드</t>
-  </si>
-  <si>
-    <t>사용의</t>
-  </si>
-  <si>
-    <t>지적・문화</t>
-  </si>
-  <si>
     <t>프레임워</t>
   </si>
   <si>
     <t>이썬</t>
   </si>
   <si>
+    <t>레스</t>
+  </si>
+  <si>
     <t>테크노스</t>
   </si>
   <si>
@@ -694,6 +745,9 @@
     <t>육청</t>
   </si>
   <si>
+    <t>윈도우</t>
+  </si>
+  <si>
     <t>초등</t>
   </si>
   <si>
@@ -703,12 +757,12 @@
     <t>그래픽</t>
   </si>
   <si>
+    <t>콘텐츠</t>
+  </si>
+  <si>
     <t>중등</t>
   </si>
   <si>
-    <t>콘텐츠</t>
-  </si>
-  <si>
     <t>통신</t>
   </si>
   <si>
@@ -793,6 +847,9 @@
     <t>교육</t>
   </si>
   <si>
+    <t>프로그래밍</t>
+  </si>
+  <si>
     <t>분석</t>
   </si>
   <si>
@@ -823,6 +880,9 @@
     <t>자기통제력</t>
   </si>
   <si>
+    <t>델파이</t>
+  </si>
+  <si>
     <t>국내외</t>
   </si>
   <si>
@@ -904,9 +964,6 @@
     <t>변인</t>
   </si>
   <si>
-    <t>프로그래밍</t>
-  </si>
-  <si>
     <t>사교육</t>
   </si>
   <si>
@@ -928,6 +985,9 @@
     <t>영재교육원</t>
   </si>
   <si>
+    <t>사이버대학</t>
+  </si>
+  <si>
     <t>학습모형</t>
   </si>
   <si>
@@ -1093,9 +1153,15 @@
     <t>우리나라</t>
   </si>
   <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
     <t>다이어그램</t>
   </si>
   <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
     <t>인포메이션</t>
   </si>
   <si>
@@ -1150,34 +1216,37 @@
     <t>동시다발</t>
   </si>
   <si>
+    <t>내외향</t>
+  </si>
+  <si>
+    <t>가정</t>
+  </si>
+  <si>
+    <t>한국교육개발원</t>
+  </si>
+  <si>
+    <t>게이미피게이션</t>
+  </si>
+  <si>
+    <t>코딩블록</t>
+  </si>
+  <si>
+    <t>스크래치주니어</t>
+  </si>
+  <si>
+    <t>테스트베드</t>
+  </si>
+  <si>
+    <t>사용</t>
+  </si>
+  <si>
+    <t>문화적</t>
+  </si>
+  <si>
     <t>파이썬</t>
   </si>
   <si>
-    <t>내외향</t>
-  </si>
-  <si>
-    <t>가정</t>
-  </si>
-  <si>
-    <t>한국교육개발원</t>
-  </si>
-  <si>
-    <t>게이미피게이션</t>
-  </si>
-  <si>
-    <t>코딩블록</t>
-  </si>
-  <si>
-    <t>스크래치주니어</t>
-  </si>
-  <si>
-    <t>테스트베드</t>
-  </si>
-  <si>
-    <t>사용</t>
-  </si>
-  <si>
-    <t>문화적</t>
+    <t>스트레스</t>
   </si>
   <si>
     <t>테크노스트레스</t>
@@ -1547,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1566,392 +1635,392 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>339</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>500</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>527</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>560</v>
+        <v>382</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>617</v>
+        <v>506</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>643</v>
+        <v>534</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>651</v>
+        <v>567</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>659</v>
+        <v>628</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>731</v>
+        <v>654</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>752</v>
+        <v>662</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>762</v>
+        <v>670</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>772</v>
+        <v>743</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>833</v>
+        <v>797</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>874</v>
+        <v>846</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>889</v>
+        <v>851</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>902</v>
+        <v>853</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>947</v>
+        <v>888</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>989</v>
+        <v>903</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1108</v>
+        <v>916</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1124</v>
+        <v>963</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1191</v>
+        <v>1006</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1962,326 +2031,326 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1252</v>
+        <v>1126</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1258</v>
+        <v>1142</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1270</v>
+        <v>1210</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1385</v>
+        <v>1271</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1399</v>
+        <v>1277</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1402</v>
+        <v>1290</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1452</v>
+        <v>1425</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1463</v>
+        <v>1436</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1478</v>
+        <v>1439</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1479</v>
+        <v>1448</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1564</v>
+        <v>1475</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1590</v>
+        <v>1486</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1593</v>
+        <v>1501</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1608</v>
+        <v>1502</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1637</v>
+        <v>1591</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1643</v>
+        <v>1617</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1667</v>
+        <v>1620</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1717</v>
+        <v>1629</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1723</v>
+        <v>1637</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1736</v>
+        <v>1666</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1746</v>
+        <v>1672</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1784</v>
+        <v>1696</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1786</v>
+        <v>1702</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1823</v>
+        <v>1748</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1825</v>
+        <v>1754</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1852</v>
+        <v>1767</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1865</v>
+        <v>1777</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -2292,1729 +2361,1916 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1875</v>
+        <v>1816</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1878</v>
+        <v>1818</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1904</v>
+        <v>1856</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1931</v>
+        <v>1858</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1945</v>
+        <v>1885</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1980</v>
+        <v>1898</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1984</v>
+        <v>1908</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1997</v>
+        <v>1911</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>2013</v>
+        <v>1937</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>2147</v>
+        <v>1964</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2148</v>
+        <v>1978</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2150</v>
+        <v>2013</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>2155</v>
+        <v>2017</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>2185</v>
+        <v>2030</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2186</v>
+        <v>2046</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2200</v>
+        <v>2156</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>2213</v>
+        <v>2182</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2233</v>
+        <v>2183</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>2352</v>
+        <v>2185</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>2382</v>
+        <v>2190</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>2394</v>
+        <v>2220</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2406</v>
+        <v>2221</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2452</v>
+        <v>2235</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2470</v>
+        <v>2248</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2511</v>
+        <v>2268</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>2556</v>
+        <v>2388</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2601</v>
+        <v>2420</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>2604</v>
+        <v>2432</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2613</v>
+        <v>2444</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>2615</v>
+        <v>2491</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>2621</v>
+        <v>2509</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>2634</v>
+        <v>2550</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>2652</v>
+        <v>2556</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>2679</v>
+        <v>2596</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>2684</v>
+        <v>2642</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>2697</v>
+        <v>2645</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>2714</v>
+        <v>2654</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>2719</v>
+        <v>2656</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>2723</v>
+        <v>2662</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>2724</v>
+        <v>2675</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>2731</v>
+        <v>2693</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>2733</v>
+        <v>2721</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>2742</v>
+        <v>2726</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>2761</v>
+        <v>2739</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>2771</v>
+        <v>2740</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>2779</v>
+        <v>2757</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>2785</v>
+        <v>2762</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>2786</v>
+        <v>2766</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>2796</v>
+        <v>2767</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>2811</v>
+        <v>2774</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>2822</v>
+        <v>2776</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>2845</v>
+        <v>2785</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>2846</v>
+        <v>2804</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>2848</v>
+        <v>2814</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>326</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>2850</v>
+        <v>2822</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>2888</v>
+        <v>2828</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>2904</v>
+        <v>2829</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>113</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>2914</v>
+        <v>2840</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>2927</v>
+        <v>2846</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>2936</v>
+        <v>2856</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>2955</v>
+        <v>2867</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>332</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>2959</v>
+        <v>2890</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>2961</v>
+        <v>2891</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>3009</v>
+        <v>2893</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>3026</v>
+        <v>2895</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>3066</v>
+        <v>2907</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>3070</v>
+        <v>2934</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>3072</v>
+        <v>2950</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>337</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>3116</v>
+        <v>2961</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>3130</v>
+        <v>2974</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>3133</v>
+        <v>2983</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>3157</v>
+        <v>3002</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>3175</v>
+        <v>3006</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>3176</v>
+        <v>3008</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>3183</v>
+        <v>3056</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>3206</v>
+        <v>3073</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>3227</v>
+        <v>3113</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>3249</v>
+        <v>3117</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>3260</v>
+        <v>3119</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>3266</v>
+        <v>3163</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>3270</v>
+        <v>3177</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>3273</v>
+        <v>3180</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>3296</v>
+        <v>3204</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>3302</v>
+        <v>3222</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>3311</v>
+        <v>3223</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>3331</v>
+        <v>3230</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>3332</v>
+        <v>3253</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>3350</v>
+        <v>3274</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>3366</v>
+        <v>3296</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>3367</v>
+        <v>3307</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>3368</v>
+        <v>3313</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>3398</v>
+        <v>3317</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>226</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>3399</v>
+        <v>3320</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>3420</v>
+        <v>3344</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>3434</v>
+        <v>3350</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>3452</v>
+        <v>3359</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>3476</v>
+        <v>3379</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>3477</v>
+        <v>3380</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>298</v>
+        <v>369</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>3478</v>
+        <v>3398</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>3479</v>
+        <v>3414</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>3482</v>
+        <v>3415</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>3507</v>
+        <v>3416</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>3515</v>
+        <v>3446</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>3555</v>
+        <v>3447</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>3618</v>
+        <v>3468</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>3621</v>
+        <v>3482</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>3636</v>
+        <v>3500</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>3660</v>
+        <v>3524</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>359</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>3710</v>
+        <v>3525</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>3857</v>
+        <v>3526</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>3873</v>
+        <v>3527</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>3889</v>
+        <v>3530</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>3895</v>
+        <v>3555</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>3896</v>
+        <v>3563</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>3939</v>
+        <v>3603</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>3953</v>
+        <v>3615</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>3955</v>
+        <v>3668</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>3988</v>
+        <v>3671</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>3995</v>
+        <v>3686</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>3996</v>
+        <v>3710</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>4018</v>
+        <v>3734</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>4032</v>
+        <v>3762</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>4046</v>
+        <v>3853</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>4049</v>
+        <v>3854</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>4050</v>
+        <v>3912</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>237</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>4060</v>
+        <v>3928</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>4061</v>
+        <v>3945</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>4072</v>
+        <v>3951</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>4077</v>
+        <v>3952</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>4078</v>
+        <v>3997</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>4080</v>
+        <v>4011</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>4084</v>
+        <v>4013</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>4091</v>
+        <v>4046</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>264</v>
+        <v>389</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>4094</v>
+        <v>4053</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>4110</v>
+        <v>4054</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>4111</v>
+        <v>4055</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>4119</v>
+        <v>4077</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>252</v>
+        <v>391</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>4135</v>
+        <v>4091</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>4225</v>
+        <v>4105</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>4228</v>
+        <v>4108</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>380</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>4246</v>
+        <v>4109</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>4265</v>
+        <v>4119</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>4276</v>
+        <v>4120</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>4278</v>
+        <v>4131</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>4300</v>
+        <v>4136</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>4307</v>
+        <v>4137</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>4365</v>
+        <v>4139</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>4367</v>
+        <v>4143</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>4415</v>
+        <v>4150</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>4447</v>
+        <v>4153</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>4467</v>
+        <v>4170</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>4484</v>
+        <v>4178</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>4492</v>
+        <v>4194</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>294</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>4497</v>
+        <v>4285</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>4504</v>
+        <v>4288</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>4505</v>
+        <v>4306</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>4516</v>
+        <v>4326</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>391</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>4337</v>
+      </c>
+      <c r="B225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C225" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>4339</v>
+      </c>
+      <c r="B226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C226" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>4361</v>
+      </c>
+      <c r="B227" t="s">
+        <v>228</v>
+      </c>
+      <c r="C227" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>4368</v>
+      </c>
+      <c r="B228" t="s">
+        <v>229</v>
+      </c>
+      <c r="C228" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>4427</v>
+      </c>
+      <c r="B229" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>4429</v>
+      </c>
+      <c r="B230" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>4452</v>
+      </c>
+      <c r="B231" t="s">
+        <v>232</v>
+      </c>
+      <c r="C231" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>4478</v>
+      </c>
+      <c r="B232" t="s">
+        <v>233</v>
+      </c>
+      <c r="C232" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>4511</v>
+      </c>
+      <c r="B233" t="s">
+        <v>234</v>
+      </c>
+      <c r="C233" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>4529</v>
+      </c>
+      <c r="B234" t="s">
+        <v>235</v>
+      </c>
+      <c r="C234" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>4532</v>
+      </c>
+      <c r="B235" t="s">
+        <v>236</v>
+      </c>
+      <c r="C235" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>4550</v>
+      </c>
+      <c r="B236" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>4558</v>
+      </c>
+      <c r="B237" t="s">
+        <v>238</v>
+      </c>
+      <c r="C237" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>4563</v>
+      </c>
+      <c r="B238" t="s">
+        <v>239</v>
+      </c>
+      <c r="C238" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>4570</v>
+      </c>
+      <c r="B239" t="s">
+        <v>240</v>
+      </c>
+      <c r="C239" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>4571</v>
+      </c>
+      <c r="B240" t="s">
+        <v>241</v>
+      </c>
+      <c r="C240" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>4583</v>
+      </c>
+      <c r="B241" t="s">
+        <v>242</v>
+      </c>
+      <c r="C241" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/modi_data/modidata.xlsx
+++ b/datamining/modi_data/modidata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="426">
   <si>
     <t>연번</t>
   </si>
@@ -73,6 +73,9 @@
     <t>초등학생</t>
   </si>
   <si>
+    <t>수학교</t>
+  </si>
+  <si>
     <t>，학급</t>
   </si>
   <si>
@@ -130,9 +133,15 @@
     <t>프로토</t>
   </si>
   <si>
+    <t>과서</t>
+  </si>
+  <si>
     <t>컴퓨터교</t>
   </si>
   <si>
+    <t>정학습</t>
+  </si>
+  <si>
     <t>․가정교</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
     <t>•학습방법</t>
   </si>
   <si>
+    <t>고력</t>
+  </si>
+  <si>
     <t>캠코</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t>토타이핑</t>
   </si>
   <si>
+    <t>고위험군</t>
+  </si>
+  <si>
     <t>그래밍</t>
   </si>
   <si>
@@ -718,6 +733,9 @@
     <t>프레임워</t>
   </si>
   <si>
+    <t>스마트폰생활</t>
+  </si>
+  <si>
     <t>이썬</t>
   </si>
   <si>
@@ -736,6 +754,9 @@
     <t>‧기록</t>
   </si>
   <si>
+    <t>운영함</t>
+  </si>
+  <si>
     <t>중‧</t>
   </si>
   <si>
@@ -784,6 +805,9 @@
     <t>컴퓨터</t>
   </si>
   <si>
+    <t>수학교육</t>
+  </si>
+  <si>
     <t>학급</t>
   </si>
   <si>
@@ -829,6 +853,12 @@
     <t>프로토타입</t>
   </si>
   <si>
+    <t>교과서</t>
+  </si>
+  <si>
+    <t>가정학습</t>
+  </si>
+  <si>
     <t>가정교육</t>
   </si>
   <si>
@@ -838,6 +868,9 @@
     <t>학습방법</t>
   </si>
   <si>
+    <t>사고력</t>
+  </si>
+  <si>
     <t>캠코더</t>
   </si>
   <si>
@@ -943,7 +976,7 @@
     <t>프로토타이핑</t>
   </si>
   <si>
-    <t>교과서</t>
+    <t>위험군</t>
   </si>
   <si>
     <t>게임중독</t>
@@ -1616,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1641,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1652,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1663,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1674,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1685,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1696,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1707,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1718,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1729,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1740,7 +1773,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1751,7 +1784,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1762,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1773,7 +1806,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1784,7 +1817,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1795,7 +1828,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1806,67 +1839,67 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>628</v>
+        <v>583</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>743</v>
+        <v>670</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1877,2400 +1910,2477 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>888</v>
+        <v>853</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1006</v>
+        <v>963</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1126</v>
+        <v>993</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1142</v>
+        <v>1006</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1210</v>
+        <v>1111</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1271</v>
+        <v>1126</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1277</v>
+        <v>1142</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1290</v>
+        <v>1210</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1407</v>
+        <v>1234</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1421</v>
+        <v>1271</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1423</v>
+        <v>1277</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1425</v>
+        <v>1290</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1436</v>
+        <v>1407</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1439</v>
+        <v>1421</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1448</v>
+        <v>1423</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1475</v>
+        <v>1425</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1486</v>
+        <v>1436</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1501</v>
+        <v>1439</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1502</v>
+        <v>1448</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1591</v>
+        <v>1475</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1617</v>
+        <v>1486</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1620</v>
+        <v>1501</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1629</v>
+        <v>1502</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1637</v>
+        <v>1591</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1666</v>
+        <v>1617</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1672</v>
+        <v>1620</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1696</v>
+        <v>1629</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1702</v>
+        <v>1637</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1748</v>
+        <v>1666</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1754</v>
+        <v>1672</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1767</v>
+        <v>1696</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1777</v>
+        <v>1702</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1816</v>
+        <v>1748</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1818</v>
+        <v>1754</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1856</v>
+        <v>1767</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1858</v>
+        <v>1777</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1885</v>
+        <v>1816</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1898</v>
+        <v>1818</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1908</v>
+        <v>1856</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1911</v>
+        <v>1858</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1937</v>
+        <v>1885</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1964</v>
+        <v>1898</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>1978</v>
+        <v>1908</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2013</v>
+        <v>1911</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>2017</v>
+        <v>1937</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>2030</v>
+        <v>1964</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2046</v>
+        <v>1978</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2156</v>
+        <v>2013</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>2182</v>
+        <v>2017</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2183</v>
+        <v>2030</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>2185</v>
+        <v>2046</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>2190</v>
+        <v>2050</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>2220</v>
+        <v>2156</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2221</v>
+        <v>2182</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2235</v>
+        <v>2183</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2248</v>
+        <v>2185</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2268</v>
+        <v>2190</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>2388</v>
+        <v>2220</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2420</v>
+        <v>2221</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>2432</v>
+        <v>2235</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2444</v>
+        <v>2248</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>2491</v>
+        <v>2268</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>2509</v>
+        <v>2388</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>2550</v>
+        <v>2420</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>2556</v>
+        <v>2432</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>2596</v>
+        <v>2444</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>2642</v>
+        <v>2491</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>2645</v>
+        <v>2509</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>2654</v>
+        <v>2550</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>2656</v>
+        <v>2556</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>2662</v>
+        <v>2596</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>2675</v>
+        <v>2642</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>2693</v>
+        <v>2645</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>2721</v>
+        <v>2654</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>2726</v>
+        <v>2656</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>2739</v>
+        <v>2662</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>2740</v>
+        <v>2675</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>2757</v>
+        <v>2693</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>2762</v>
+        <v>2721</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>2766</v>
+        <v>2726</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>2767</v>
+        <v>2739</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>2774</v>
+        <v>2740</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>2776</v>
+        <v>2757</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>2785</v>
+        <v>2762</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>2804</v>
+        <v>2766</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>2814</v>
+        <v>2767</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>2822</v>
+        <v>2774</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>2828</v>
+        <v>2776</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>2829</v>
+        <v>2785</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>2840</v>
+        <v>2804</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>2846</v>
+        <v>2814</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>2856</v>
+        <v>2822</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>2867</v>
+        <v>2828</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>122</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>2890</v>
+        <v>2829</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>2891</v>
+        <v>2840</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>2893</v>
+        <v>2846</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>2895</v>
+        <v>2856</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>2907</v>
+        <v>2867</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>2934</v>
+        <v>2890</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>2950</v>
+        <v>2891</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>122</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>2961</v>
+        <v>2893</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>2974</v>
+        <v>2895</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>2983</v>
+        <v>2907</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>3002</v>
+        <v>2934</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>3006</v>
+        <v>2950</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>353</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>3008</v>
+        <v>2961</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>293</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>3056</v>
+        <v>2974</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>3073</v>
+        <v>2983</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>3113</v>
+        <v>3002</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>3117</v>
+        <v>3006</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>3119</v>
+        <v>3008</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>3163</v>
+        <v>3056</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>3177</v>
+        <v>3073</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>3180</v>
+        <v>3113</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>3204</v>
+        <v>3117</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>3222</v>
+        <v>3119</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>3223</v>
+        <v>3163</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>3230</v>
+        <v>3177</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>3253</v>
+        <v>3180</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>3274</v>
+        <v>3204</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>3296</v>
+        <v>3222</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>3307</v>
+        <v>3223</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>3313</v>
+        <v>3230</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>3317</v>
+        <v>3253</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>3320</v>
+        <v>3274</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>3344</v>
+        <v>3296</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>3350</v>
+        <v>3307</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>3359</v>
+        <v>3313</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>3379</v>
+        <v>3317</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>3380</v>
+        <v>3320</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>3398</v>
+        <v>3344</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>3414</v>
+        <v>3350</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>285</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>3415</v>
+        <v>3359</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>3416</v>
+        <v>3379</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>3446</v>
+        <v>3380</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>244</v>
+        <v>380</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>3447</v>
+        <v>3398</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>3468</v>
+        <v>3414</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>3482</v>
+        <v>3415</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>3500</v>
+        <v>3416</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>3524</v>
+        <v>3446</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>3525</v>
+        <v>3447</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>3526</v>
+        <v>3468</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>3527</v>
+        <v>3482</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>278</v>
+        <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>3530</v>
+        <v>3500</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>3555</v>
+        <v>3524</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>378</v>
+        <v>288</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>3563</v>
+        <v>3525</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>3603</v>
+        <v>3526</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>3615</v>
+        <v>3527</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>379</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>3668</v>
+        <v>3530</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>3671</v>
+        <v>3555</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>3686</v>
+        <v>3563</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>3710</v>
+        <v>3603</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>3734</v>
+        <v>3615</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>3762</v>
+        <v>3668</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>3853</v>
+        <v>3671</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>255</v>
+        <v>358</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>3854</v>
+        <v>3686</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>255</v>
+        <v>358</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>3912</v>
+        <v>3710</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>3928</v>
+        <v>3734</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>3945</v>
+        <v>3762</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>3951</v>
+        <v>3853</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>384</v>
+        <v>262</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>3952</v>
+        <v>3854</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>385</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>3997</v>
+        <v>3912</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>4011</v>
+        <v>3928</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>4013</v>
+        <v>3945</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>4046</v>
+        <v>3951</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>4053</v>
+        <v>3952</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>4054</v>
+        <v>3997</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>4055</v>
+        <v>4011</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>4077</v>
+        <v>4013</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>4091</v>
+        <v>4046</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>4105</v>
+        <v>4053</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>4108</v>
+        <v>4054</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>277</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>4109</v>
+        <v>4055</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>4119</v>
+        <v>4077</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>4120</v>
+        <v>4091</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>4131</v>
+        <v>4105</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>4136</v>
+        <v>4108</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>4137</v>
+        <v>4109</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>397</v>
+        <v>262</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>4139</v>
+        <v>4119</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>4143</v>
+        <v>4120</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>328</v>
+        <v>405</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>4150</v>
+        <v>4131</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>283</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>4153</v>
+        <v>4136</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>4170</v>
+        <v>4137</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>4178</v>
+        <v>4139</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>270</v>
+        <v>409</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>4194</v>
+        <v>4143</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>4285</v>
+        <v>4150</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>391</v>
+        <v>294</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>4288</v>
+        <v>4153</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>4306</v>
+        <v>4170</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>304</v>
+        <v>402</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>4326</v>
+        <v>4178</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>402</v>
+        <v>278</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>4337</v>
+        <v>4194</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>4339</v>
+        <v>4285</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>4361</v>
+        <v>4288</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>4368</v>
+        <v>4306</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>406</v>
+        <v>315</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>4427</v>
+        <v>4326</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>4429</v>
+        <v>4337</v>
       </c>
       <c r="B230" t="s">
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>4452</v>
+        <v>4339</v>
       </c>
       <c r="B231" t="s">
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>4478</v>
+        <v>4361</v>
       </c>
       <c r="B232" t="s">
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>4511</v>
+        <v>4368</v>
       </c>
       <c r="B233" t="s">
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>4529</v>
+        <v>4427</v>
       </c>
       <c r="B234" t="s">
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>4532</v>
+        <v>4429</v>
       </c>
       <c r="B235" t="s">
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>4550</v>
+        <v>4452</v>
       </c>
       <c r="B236" t="s">
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>276</v>
+        <v>420</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>4558</v>
+        <v>4478</v>
       </c>
       <c r="B237" t="s">
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>4563</v>
+        <v>4496</v>
       </c>
       <c r="B238" t="s">
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>4570</v>
+        <v>4511</v>
       </c>
       <c r="B239" t="s">
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>4571</v>
+        <v>4529</v>
       </c>
       <c r="B240" t="s">
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>244</v>
+        <v>421</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>4583</v>
+        <v>4532</v>
       </c>
       <c r="B241" t="s">
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>414</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>4550</v>
+      </c>
+      <c r="B242" t="s">
+        <v>243</v>
+      </c>
+      <c r="C242" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>4558</v>
+      </c>
+      <c r="B243" t="s">
+        <v>244</v>
+      </c>
+      <c r="C243" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>4563</v>
+      </c>
+      <c r="B244" t="s">
+        <v>245</v>
+      </c>
+      <c r="C244" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>4565</v>
+      </c>
+      <c r="B245" t="s">
+        <v>246</v>
+      </c>
+      <c r="C245" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>4570</v>
+      </c>
+      <c r="B246" t="s">
+        <v>247</v>
+      </c>
+      <c r="C246" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>4571</v>
+      </c>
+      <c r="B247" t="s">
+        <v>248</v>
+      </c>
+      <c r="C247" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>4583</v>
+      </c>
+      <c r="B248" t="s">
+        <v>249</v>
+      </c>
+      <c r="C248" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
